--- a/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:08:55+00:00</t>
+    <t>2023-07-12T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:12:47+00:00</t>
+    <t>2023-07-12T08:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30095,7 +30095,7 @@
         <v>36</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>35</v>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:15:17+00:00</t>
+    <t>2023-07-12T08:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:17:11+00:00</t>
+    <t>2023-07-12T08:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
